--- a/medicine/Psychotrope/Nicolas_Feuillatte/Nicolas_Feuillatte.xlsx
+++ b/medicine/Psychotrope/Nicolas_Feuillatte/Nicolas_Feuillatte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Feuillatte, né le 29 janvier 1926 à Paris (Seine) et mort dans la même ville le 10 août 2014[1], est un homme d'affaires français[2]. Il est à l'origine de la coopérative Champagne Nicolas Feuillatte à Chouilly. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Feuillatte, né le 29 janvier 1926 à Paris (Seine) et mort dans la même ville le 10 août 2014, est un homme d'affaires français. Il est à l'origine de la coopérative Champagne Nicolas Feuillatte à Chouilly. 
 Il a longuement vécu aux États-Unis, où il côtoyait des célébrités. Il arrive dans le monde du champagne en 1972 et créé sa propre marque. Il revend sa marque en 1986 puis se retire des affaires.
 </t>
         </is>
